--- a/Original Excel Files/PK-PM.xlsx
+++ b/Original Excel Files/PK-PM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926620EA-9EB8-4B29-915B-E23B6506E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="32655" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +173,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -220,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -234,15 +229,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -300,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,9 +338,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,11 +582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A9:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,185 +629,215 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2009</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2009</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1970</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1969</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1970</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1942</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1969</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1942</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1967</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1972</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1971</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1967</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1972</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
-    </row>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1971</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -780,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
